--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,32 +4,111 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Message" sheetId="1" r:id="rId1"/>
+    <sheet name="Login,Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Get user information" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Tên Message</t>
-  </si>
-  <si>
     <t>Command ID</t>
+  </si>
+  <si>
+    <t>CMD_LOGIN</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>ValueType</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>(0: desktop, 1:android,2:iOs)</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>CMD_REGISTER</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Value type</t>
+  </si>
+  <si>
+    <t>0: unsuccess, 1:success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>0:unsuccess, 1:success</t>
+  </si>
+  <si>
+    <t>Player info</t>
+  </si>
+  <si>
+    <t>CMD_PLAYER_INFO</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>level up require</t>
+  </si>
+  <si>
+    <t>level up point</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>updating…</t>
+  </si>
+  <si>
+    <t>Get Player infor</t>
+  </si>
+  <si>
+    <t>From Client</t>
+  </si>
+  <si>
+    <t>From Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,13 +116,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -69,10 +215,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,32 +535,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="J2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Login,Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Get user information" sheetId="2" r:id="rId2"/>
+    <sheet name="Friend" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>Login</t>
   </si>
@@ -102,6 +103,93 @@
   </si>
   <si>
     <t>From Server</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CMD_ADD_FRIEND</t>
+  </si>
+  <si>
+    <t>From client</t>
+  </si>
+  <si>
+    <t>CMD_ACCEPT_FRIEND</t>
+  </si>
+  <si>
+    <t>CMD_REMOVE_FRIEND</t>
+  </si>
+  <si>
+    <t>Add a friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept the invited </t>
+  </si>
+  <si>
+    <t>Remove the exits friend</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>0: failure, 1: success</t>
+  </si>
+  <si>
+    <t>0:failure, 1:success</t>
+  </si>
+  <si>
+    <t>CMD_PLAYER_CHAT</t>
+  </si>
+  <si>
+    <t>Friend's username, you want chat together</t>
+  </si>
+  <si>
+    <t>Player just have sent to you a message chat</t>
+  </si>
+  <si>
+    <t>Chat content</t>
+  </si>
+  <si>
+    <t>chat content</t>
+  </si>
+  <si>
+    <t>CMD_LIST_FRIEND</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Get friend list</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Number of friend client will be received in next message</t>
+  </si>
+  <si>
+    <t>CMD_FRIEND_INFOR</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N next message </t>
+  </si>
+  <si>
+    <t>is N friend infor</t>
   </si>
 </sst>
 </file>
@@ -157,12 +245,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -175,19 +257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,23 +305,23 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,149 +623,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -696,7 +776,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -715,7 +795,6 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -727,7 +806,6 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -736,9 +814,8 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1"/>
@@ -746,7 +823,6 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -755,21 +831,145 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -779,161 +979,463 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="J11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="J14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Login,Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Friend" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Format" sheetId="4" r:id="rId1"/>
+    <sheet name="Login,Register" sheetId="1" r:id="rId2"/>
+    <sheet name="Friend" sheetId="2" r:id="rId3"/>
+    <sheet name="Chat" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>Login</t>
   </si>
@@ -190,13 +191,88 @@
   </si>
   <si>
     <t>is N friend infor</t>
+  </si>
+  <si>
+    <t>friend'username you want to chat</t>
+  </si>
+  <si>
+    <t>message you want to send</t>
+  </si>
+  <si>
+    <t>to_username</t>
+  </si>
+  <si>
+    <t>from_username</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>4byte</t>
+  </si>
+  <si>
+    <t>2byte</t>
+  </si>
+  <si>
+    <t>num arg</t>
+  </si>
+  <si>
+    <t>cmd_code</t>
+  </si>
+  <si>
+    <t>Arg1</t>
+  </si>
+  <si>
+    <t>Arg2</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>ArgN</t>
+  </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>arg_code</t>
+  </si>
+  <si>
+    <t>1byte</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>value_len</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>If string or raw data</t>
+  </si>
+  <si>
+    <t>n byte</t>
+  </si>
+  <si>
+    <t>byte:1</t>
+  </si>
+  <si>
+    <t>short:2</t>
+  </si>
+  <si>
+    <t>int:4</t>
+  </si>
+  <si>
+    <t>long:8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +311,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +370,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -300,10 +421,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -322,8 +444,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,6 +752,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -977,12 +1228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,16 +1677,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>Login</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>long:8</t>
+  </si>
+  <si>
+    <t>string[option]</t>
+  </si>
+  <si>
+    <t>If failure</t>
   </si>
 </sst>
 </file>
@@ -754,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,9 +974,15 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
@@ -1058,9 +1070,15 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>

--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="4" r:id="rId1"/>
     <sheet name="Login,Register" sheetId="1" r:id="rId2"/>
     <sheet name="Friend" sheetId="2" r:id="rId3"/>
     <sheet name="Chat" sheetId="3" r:id="rId4"/>
+    <sheet name="Matching Game" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
   <si>
     <t>Login</t>
   </si>
@@ -272,6 +273,24 @@
   </si>
   <si>
     <t>If failure</t>
+  </si>
+  <si>
+    <t>CMD_GAME_MATCHING</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>int(0,1)</t>
+  </si>
+  <si>
+    <t>0:fail,1:success</t>
+  </si>
+  <si>
+    <t>the room id user joined</t>
+  </si>
+  <si>
+    <t>Sau khi nhan message nay, player se nhan duoc message CMD_FRIEND_INFO</t>
   </si>
 </sst>
 </file>
@@ -882,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,4 +1872,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="4" r:id="rId1"/>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1718,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
